--- a/data/pro2020/ETNP-SKQ17-fungi-searches/SKQ17-Comet-fungi-searches/ETNP-SKQ17-378-100m-trap_PTMopt_Comet15_ETNPfungidb_00FDR.xlsx
+++ b/data/pro2020/ETNP-SKQ17-fungi-searches/SKQ17-Comet-fungi-searches/ETNP-SKQ17-378-100m-trap_PTMopt_Comet15_ETNPfungidb_00FDR.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ETNP-SKQ17-378-100m-trap_PTMopt" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="noHi3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'ETNP-SKQ17-378-100m-trap_PTMopt'!$A$1:$N$29</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="144">
   <si>
     <t xml:space="preserve">spectrum</t>
   </si>
@@ -453,6 +454,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021-10-24 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGQLEQIR</t>
   </si>
 </sst>
 </file>
@@ -470,6 +474,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -570,10 +575,10 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.39"/>
@@ -581,7 +586,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="67.01"/>
@@ -1874,7 +1879,7 @@
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1890,11 +1895,11 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
   </cols>
@@ -2192,7 +2197,76 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
